--- a/project/infrastructure/Test/Testing_ArimaModel_init.xlsx
+++ b/project/infrastructure/Test/Testing_ArimaModel_init.xlsx
@@ -1,31 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishalsharma/Desktop/Oil_Predictor_Project/CODE/fuel_price_prediction_tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishalsharma/Desktop/Oil_Predictor_Project/CODE/fuel_price_prediction_tool/refactored_app_project_folder/fuel_saver_test_6_August/pfpcs_application/project/infrastructure/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23141D8D-9EF7-8746-8611-B002332D5F2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BD182F-CCE5-CC4B-8A8D-C78D2B70D25A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Source" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>http://ukvehicledata.co.uk/Fuel-Prices</t>
   </si>
 </sst>
 </file>
@@ -35,7 +39,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +51,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,17 +93,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,11 +409,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -835,4 +853,25 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0F8679-34C8-C842-B25F-15E8BADA6C64}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{552C5692-2214-964A-B399-55884E927189}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>